--- a/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T07:08:04+00:00</t>
+    <t>2025-11-06T08:50:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T08:50:45+00:00</t>
+    <t>2025-11-06T15:29:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T15:29:54+00:00</t>
+    <t>2025-11-06T15:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T15:57:23+00:00</t>
+    <t>2025-11-06T16:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T16:15:20+00:00</t>
+    <t>2025-11-06T18:07:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T18:07:46+00:00</t>
+    <t>2025-11-06T18:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-shortnotice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T18:36:55+00:00</t>
+    <t>2025-12-09T12:52:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
